--- a/0_Report/measure_config.xlsx
+++ b/0_Report/measure_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="40">
   <si>
     <t>Slave Latency</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Case 3</t>
   </si>
   <si>
-    <t>Zephyr RTOS ticks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soft Timer </t>
   </si>
   <si>
@@ -143,10 +140,10 @@
     <t>BLE TX Buffer</t>
   </si>
   <si>
-    <t>Zephyr Ticks</t>
-  </si>
-  <si>
-    <t>500[Hz]</t>
+    <t>4000 [ms]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4000 [s]</t>
   </si>
 </sst>
 </file>
@@ -182,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,23 +232,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -261,17 +243,17 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,15 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -314,10 +287,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -649,6 +634,7 @@
     <col min="15" max="15" width="18.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.9296875" customWidth="1"/>
     <col min="18" max="20" width="16.73046875" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -666,10 +652,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -680,10 +666,8 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -702,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7">
         <v>15</v>
@@ -716,17 +700,11 @@
       <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="7">
-        <v>500</v>
+      <c r="M2" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -746,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5">
         <v>15</v>
@@ -760,17 +738,11 @@
       <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -790,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -803,6 +775,12 @@
       </c>
       <c r="J4" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -823,10 +801,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>11</v>
@@ -858,7 +836,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -893,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>15</v>
@@ -928,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -944,15 +922,15 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.45">
@@ -965,7 +943,7 @@
       <c r="S17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="T17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -973,13 +951,13 @@
       <c r="Q18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="17">
-        <v>0</v>
-      </c>
-      <c r="S18" s="17">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14">
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>0</v>
       </c>
     </row>
@@ -993,7 +971,7 @@
       <c r="S19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1007,27 +985,27 @@
       <c r="S20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="S21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22" s="5">
         <v>15</v>
@@ -1035,7 +1013,7 @@
       <c r="S22" s="5">
         <v>15</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="10">
         <v>15</v>
       </c>
     </row>
@@ -1049,7 +1027,7 @@
       <c r="S23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1063,22 +1041,22 @@
       <c r="S24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="7">
-        <v>500</v>
-      </c>
-      <c r="S25" s="7">
-        <v>500</v>
-      </c>
-      <c r="T25" s="12">
-        <v>500</v>
+        <v>30</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="17:20" x14ac:dyDescent="0.45">
@@ -1091,177 +1069,288 @@
       <c r="S26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="17:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="Q29" s="15"/>
-      <c r="R29" s="3" t="s">
+    <row r="28" spans="17:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="16" t="s">
+    </row>
+    <row r="29" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="Q29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="Q30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="Q31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="Q32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q35" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q30" s="6" t="s">
+      <c r="R35" s="7">
+        <v>15</v>
+      </c>
+      <c r="S35" s="7">
+        <v>15</v>
+      </c>
+      <c r="T35" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="17:21" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="Q39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="17:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R43" s="12"/>
+      <c r="S43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="R44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="S44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30" s="12" t="s">
+      <c r="T44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U44" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="17">
-        <v>0</v>
-      </c>
-      <c r="S31" s="17">
-        <v>0</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q32" s="6" t="s">
+    <row r="45" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="R45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="14">
+        <v>0</v>
+      </c>
+      <c r="T45" s="14">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="R46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q36" s="6" t="s">
+      <c r="S46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="7">
-        <v>15</v>
-      </c>
-      <c r="S36" s="7">
-        <v>15</v>
-      </c>
-      <c r="T36" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q37" s="2" t="s">
+      <c r="T46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="R47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S37" s="5" t="s">
+      <c r="S47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="U47" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q38" s="6" t="s">
+    <row r="48" spans="17:21" x14ac:dyDescent="0.45">
+      <c r="R48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="S48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="T48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T38" s="12" t="s">
+      <c r="U48" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.45">
-      <c r="Q40" s="6" t="s">
+    <row r="49" spans="18:21" x14ac:dyDescent="0.45">
+      <c r="R49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="18:21" x14ac:dyDescent="0.45">
+      <c r="R50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="S50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T40" s="12" t="s">
+      <c r="U50" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>